--- a/team_specific_matrix/Le Moyne_B.xlsx
+++ b/team_specific_matrix/Le Moyne_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1896551724137931</v>
+        <v>0.1964285714285714</v>
       </c>
       <c r="C2">
-        <v>0.5632183908045977</v>
+        <v>0.5446428571428571</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01724137931034483</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1379310344827586</v>
+        <v>0.1383928571428572</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.09195402298850575</v>
+        <v>0.1026785714285714</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.009803921568627451</v>
+        <v>0.01550387596899225</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.007751937984496124</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.0392156862745098</v>
+        <v>0.05426356589147287</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7745098039215687</v>
+        <v>0.7286821705426356</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1764705882352941</v>
+        <v>0.1937984496124031</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.05</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6</v>
+        <v>0.696969696969697</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.35</v>
+        <v>0.2727272727272727</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.05421686746987952</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.006024096385542169</v>
+        <v>0.004629629629629629</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.04819277108433735</v>
+        <v>0.05092592592592592</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2771084337349398</v>
+        <v>0.25</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.006024096385542169</v>
+        <v>0.01388888888888889</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1686746987951807</v>
+        <v>0.1574074074074074</v>
       </c>
       <c r="R6">
-        <v>0.09036144578313253</v>
+        <v>0.1018518518518518</v>
       </c>
       <c r="S6">
-        <v>0.3493975903614458</v>
+        <v>0.3657407407407408</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.0703125</v>
+        <v>0.06040268456375839</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.015625</v>
+        <v>0.01342281879194631</v>
       </c>
       <c r="E7">
-        <v>0.0078125</v>
+        <v>0.006711409395973154</v>
       </c>
       <c r="F7">
-        <v>0.0390625</v>
+        <v>0.04697986577181208</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.21875</v>
+        <v>0.2080536912751678</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.0234375</v>
+        <v>0.02013422818791946</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.078125</v>
+        <v>0.1006711409395973</v>
       </c>
       <c r="R7">
-        <v>0.1171875</v>
+        <v>0.1073825503355705</v>
       </c>
       <c r="S7">
-        <v>0.4296875</v>
+        <v>0.436241610738255</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.0684931506849315</v>
+        <v>0.06091370558375635</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.00684931506849315</v>
+        <v>0.005076142131979695</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.05136986301369863</v>
+        <v>0.04822335025380711</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.08904109589041095</v>
+        <v>0.09644670050761421</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.00684931506849315</v>
+        <v>0.007614213197969543</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.2226027397260274</v>
+        <v>0.2106598984771574</v>
       </c>
       <c r="R8">
-        <v>0.1027397260273973</v>
+        <v>0.1065989847715736</v>
       </c>
       <c r="S8">
-        <v>0.4520547945205479</v>
+        <v>0.4644670050761421</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.07906976744186046</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.004651162790697674</v>
+        <v>0.01136363636363636</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.08372093023255814</v>
+        <v>0.07954545454545454</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1255813953488372</v>
+        <v>0.1363636363636364</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01395348837209302</v>
+        <v>0.01136363636363636</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1441860465116279</v>
+        <v>0.1363636363636364</v>
       </c>
       <c r="R9">
-        <v>0.1116279069767442</v>
+        <v>0.1098484848484848</v>
       </c>
       <c r="S9">
-        <v>0.4372093023255814</v>
+        <v>0.4242424242424243</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.08151093439363817</v>
+        <v>0.08073115003808073</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01491053677932406</v>
+        <v>0.0198019801980198</v>
       </c>
       <c r="E10">
-        <v>0.0009940357852882703</v>
+        <v>0.0007616146230007616</v>
       </c>
       <c r="F10">
-        <v>0.07852882703777336</v>
+        <v>0.08149276466108149</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1282306163021869</v>
+        <v>0.1264280274181264</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01192842942345924</v>
+        <v>0.01066260472201066</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1938369781312127</v>
+        <v>0.1957349581111957</v>
       </c>
       <c r="R10">
-        <v>0.09642147117296222</v>
+        <v>0.09748667174409749</v>
       </c>
       <c r="S10">
-        <v>0.393638170974155</v>
+        <v>0.3869002284843869</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1204819277108434</v>
+        <v>0.1192660550458716</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.04819277108433735</v>
+        <v>0.07339449541284404</v>
       </c>
       <c r="K11">
-        <v>0.144578313253012</v>
+        <v>0.1697247706422018</v>
       </c>
       <c r="L11">
-        <v>0.6626506024096386</v>
+        <v>0.6146788990825688</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.02409638554216868</v>
+        <v>0.02293577981651376</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7457627118644068</v>
+        <v>0.7163120567375887</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1610169491525424</v>
+        <v>0.1843971631205674</v>
       </c>
       <c r="K12">
-        <v>0.02542372881355932</v>
+        <v>0.02836879432624113</v>
       </c>
       <c r="L12">
-        <v>0.06779661016949153</v>
+        <v>0.05673758865248227</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0</v>
+        <v>0.01418439716312057</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.8846153846153846</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.07692307692307693</v>
+        <v>0.103448275862069</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.03846153846153846</v>
+        <v>0.03448275862068965</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.0291970802919708</v>
+        <v>0.02173913043478261</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.145985401459854</v>
+        <v>0.1576086956521739</v>
       </c>
       <c r="I15">
-        <v>0.1240875912408759</v>
+        <v>0.1141304347826087</v>
       </c>
       <c r="J15">
-        <v>0.4087591240875912</v>
+        <v>0.4293478260869565</v>
       </c>
       <c r="K15">
-        <v>0.0583941605839416</v>
+        <v>0.04891304347826087</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.0145985401459854</v>
+        <v>0.01630434782608696</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.05109489051094891</v>
+        <v>0.04891304347826087</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.1678832116788321</v>
+        <v>0.1630434782608696</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.008771929824561403</v>
+        <v>0.00684931506849315</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1052631578947368</v>
+        <v>0.136986301369863</v>
       </c>
       <c r="I16">
-        <v>0.08771929824561403</v>
+        <v>0.0821917808219178</v>
       </c>
       <c r="J16">
-        <v>0.456140350877193</v>
+        <v>0.4726027397260274</v>
       </c>
       <c r="K16">
-        <v>0.08771929824561403</v>
+        <v>0.07534246575342465</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01754385964912281</v>
+        <v>0.0136986301369863</v>
       </c>
       <c r="N16">
-        <v>0.008771929824561403</v>
+        <v>0.00684931506849315</v>
       </c>
       <c r="O16">
-        <v>0.07017543859649122</v>
+        <v>0.07534246575342465</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1578947368421053</v>
+        <v>0.1301369863013699</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.009202453987730062</v>
+        <v>0.01187648456057007</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1380368098159509</v>
+        <v>0.1401425178147268</v>
       </c>
       <c r="I17">
-        <v>0.1226993865030675</v>
+        <v>0.1187648456057007</v>
       </c>
       <c r="J17">
-        <v>0.4785276073619632</v>
+        <v>0.4774346793349168</v>
       </c>
       <c r="K17">
-        <v>0.08588957055214724</v>
+        <v>0.09263657957244656</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01533742331288344</v>
+        <v>0.01187648456057007</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.03067484662576687</v>
+        <v>0.03800475059382423</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1196319018404908</v>
+        <v>0.1092636579572447</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02209944751381215</v>
+        <v>0.01687763713080169</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.143646408839779</v>
+        <v>0.1476793248945148</v>
       </c>
       <c r="I18">
-        <v>0.1270718232044199</v>
+        <v>0.1308016877637131</v>
       </c>
       <c r="J18">
-        <v>0.425414364640884</v>
+        <v>0.4388185654008439</v>
       </c>
       <c r="K18">
-        <v>0.09392265193370165</v>
+        <v>0.08016877637130802</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01657458563535912</v>
+        <v>0.01265822784810127</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.06077348066298342</v>
+        <v>0.07172995780590717</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1104972375690608</v>
+        <v>0.1012658227848101</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01235839340885685</v>
+        <v>0.01286173633440514</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1967044284243048</v>
+        <v>0.2033762057877813</v>
       </c>
       <c r="I19">
-        <v>0.1277033985581874</v>
+        <v>0.1197749196141479</v>
       </c>
       <c r="J19">
-        <v>0.3964984552008239</v>
+        <v>0.3987138263665595</v>
       </c>
       <c r="K19">
-        <v>0.08032955715756952</v>
+        <v>0.08038585209003216</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01853759011328527</v>
+        <v>0.01607717041800643</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.0008038585209003215</v>
       </c>
       <c r="O19">
-        <v>0.06282183316168898</v>
+        <v>0.06430868167202572</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1050463439752832</v>
+        <v>0.1036977491961415</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Le Moyne_B.xlsx
+++ b/team_specific_matrix/Le Moyne_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1964285714285714</v>
+        <v>0.1953125</v>
       </c>
       <c r="C2">
-        <v>0.5446428571428571</v>
+        <v>0.546875</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01785714285714286</v>
+        <v>0.0234375</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1383928571428572</v>
+        <v>0.13671875</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1026785714285714</v>
+        <v>0.09765625</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01550387596899225</v>
+        <v>0.01360544217687075</v>
       </c>
       <c r="C3">
-        <v>0.007751937984496124</v>
+        <v>0.006802721088435374</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.05426356589147287</v>
+        <v>0.06122448979591837</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7286821705426356</v>
+        <v>0.7210884353741497</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1937984496124031</v>
+        <v>0.1972789115646258</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.0303030303030303</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.696969696969697</v>
+        <v>0.7297297297297297</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2727272727272727</v>
+        <v>0.2432432432432433</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -699,7 +699,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -717,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.05555555555555555</v>
+        <v>0.0546218487394958</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.004629629629629629</v>
+        <v>0.004201680672268907</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.05092592592592592</v>
+        <v>0.05042016806722689</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.25</v>
+        <v>0.2478991596638656</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01388888888888889</v>
+        <v>0.01260504201680672</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1574074074074074</v>
+        <v>0.1470588235294118</v>
       </c>
       <c r="R6">
-        <v>0.1018518518518518</v>
+        <v>0.1008403361344538</v>
       </c>
       <c r="S6">
-        <v>0.3657407407407408</v>
+        <v>0.3823529411764706</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.06040268456375839</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01342281879194631</v>
+        <v>0.0119047619047619</v>
       </c>
       <c r="E7">
-        <v>0.006711409395973154</v>
+        <v>0.005952380952380952</v>
       </c>
       <c r="F7">
-        <v>0.04697986577181208</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.2080536912751678</v>
+        <v>0.1845238095238095</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02013422818791946</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1006711409395973</v>
+        <v>0.1011904761904762</v>
       </c>
       <c r="R7">
-        <v>0.1073825503355705</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="S7">
-        <v>0.436241610738255</v>
+        <v>0.4523809523809524</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.06091370558375635</v>
+        <v>0.06511627906976744</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.005076142131979695</v>
+        <v>0.004651162790697674</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.04822335025380711</v>
+        <v>0.04883720930232558</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.09644670050761421</v>
+        <v>0.09767441860465116</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.007614213197969543</v>
+        <v>0.006976744186046512</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.2106598984771574</v>
+        <v>0.2</v>
       </c>
       <c r="R8">
-        <v>0.1065989847715736</v>
+        <v>0.1116279069767442</v>
       </c>
       <c r="S8">
-        <v>0.4644670050761421</v>
+        <v>0.4651162790697674</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.09090909090909091</v>
+        <v>0.0896551724137931</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01136363636363636</v>
+        <v>0.0103448275862069</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.07954545454545454</v>
+        <v>0.07241379310344828</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1363636363636364</v>
+        <v>0.1310344827586207</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01136363636363636</v>
+        <v>0.0103448275862069</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1363636363636364</v>
+        <v>0.1344827586206896</v>
       </c>
       <c r="R9">
-        <v>0.1098484848484848</v>
+        <v>0.1068965517241379</v>
       </c>
       <c r="S9">
-        <v>0.4242424242424243</v>
+        <v>0.4448275862068966</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.08073115003808073</v>
+        <v>0.08230452674897119</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.0198019801980198</v>
+        <v>0.02126200274348422</v>
       </c>
       <c r="E10">
-        <v>0.0007616146230007616</v>
+        <v>0.001371742112482853</v>
       </c>
       <c r="F10">
-        <v>0.08149276466108149</v>
+        <v>0.08161865569272976</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1264280274181264</v>
+        <v>0.1255144032921811</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01066260472201066</v>
+        <v>0.0102880658436214</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1957349581111957</v>
+        <v>0.1934156378600823</v>
       </c>
       <c r="R10">
-        <v>0.09748667174409749</v>
+        <v>0.09465020576131687</v>
       </c>
       <c r="S10">
-        <v>0.3869002284843869</v>
+        <v>0.3895747599451303</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1192660550458716</v>
+        <v>0.1120331950207469</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.07339449541284404</v>
+        <v>0.08713692946058091</v>
       </c>
       <c r="K11">
-        <v>0.1697247706422018</v>
+        <v>0.1618257261410788</v>
       </c>
       <c r="L11">
-        <v>0.6146788990825688</v>
+        <v>0.6182572614107884</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.02293577981651376</v>
+        <v>0.02074688796680498</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7163120567375887</v>
+        <v>0.7243589743589743</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1843971631205674</v>
+        <v>0.1858974358974359</v>
       </c>
       <c r="K12">
-        <v>0.02836879432624113</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="L12">
-        <v>0.05673758865248227</v>
+        <v>0.05128205128205128</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.01418439716312057</v>
+        <v>0.01282051282051282</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.8620689655172413</v>
+        <v>0.8378378378378378</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.103448275862069</v>
+        <v>0.1351351351351351</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.03448275862068965</v>
+        <v>0.02702702702702703</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02173913043478261</v>
+        <v>0.01932367149758454</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1576086956521739</v>
+        <v>0.1594202898550725</v>
       </c>
       <c r="I15">
-        <v>0.1141304347826087</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="J15">
-        <v>0.4293478260869565</v>
+        <v>0.4251207729468599</v>
       </c>
       <c r="K15">
-        <v>0.04891304347826087</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01630434782608696</v>
+        <v>0.02898550724637681</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.04891304347826087</v>
+        <v>0.05314009661835749</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.1630434782608696</v>
+        <v>0.1594202898550725</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.00684931506849315</v>
+        <v>0.006024096385542169</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.136986301369863</v>
+        <v>0.1506024096385542</v>
       </c>
       <c r="I16">
-        <v>0.0821917808219178</v>
+        <v>0.0783132530120482</v>
       </c>
       <c r="J16">
-        <v>0.4726027397260274</v>
+        <v>0.4578313253012048</v>
       </c>
       <c r="K16">
-        <v>0.07534246575342465</v>
+        <v>0.09036144578313253</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.0136986301369863</v>
+        <v>0.01204819277108434</v>
       </c>
       <c r="N16">
-        <v>0.00684931506849315</v>
+        <v>0.006024096385542169</v>
       </c>
       <c r="O16">
-        <v>0.07534246575342465</v>
+        <v>0.07228915662650602</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1301369863013699</v>
+        <v>0.1265060240963855</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01187648456057007</v>
+        <v>0.01538461538461539</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1401425178147268</v>
+        <v>0.1362637362637363</v>
       </c>
       <c r="I17">
-        <v>0.1187648456057007</v>
+        <v>0.1164835164835165</v>
       </c>
       <c r="J17">
-        <v>0.4774346793349168</v>
+        <v>0.4725274725274725</v>
       </c>
       <c r="K17">
-        <v>0.09263657957244656</v>
+        <v>0.0945054945054945</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01187648456057007</v>
+        <v>0.01098901098901099</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.03800475059382423</v>
+        <v>0.04835164835164835</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1092636579572447</v>
+        <v>0.1054945054945055</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01687763713080169</v>
+        <v>0.01556420233463035</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1476793248945148</v>
+        <v>0.1361867704280156</v>
       </c>
       <c r="I18">
-        <v>0.1308016877637131</v>
+        <v>0.1361867704280156</v>
       </c>
       <c r="J18">
-        <v>0.4388185654008439</v>
+        <v>0.4474708171206226</v>
       </c>
       <c r="K18">
-        <v>0.08016877637130802</v>
+        <v>0.07392996108949416</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01265822784810127</v>
+        <v>0.01945525291828794</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.07172995780590717</v>
+        <v>0.06614785992217899</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1012658227848101</v>
+        <v>0.1050583657587549</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01286173633440514</v>
+        <v>0.01298701298701299</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2033762057877813</v>
+        <v>0.2005772005772006</v>
       </c>
       <c r="I19">
-        <v>0.1197749196141479</v>
+        <v>0.119047619047619</v>
       </c>
       <c r="J19">
-        <v>0.3987138263665595</v>
+        <v>0.4054834054834055</v>
       </c>
       <c r="K19">
-        <v>0.08038585209003216</v>
+        <v>0.08152958152958154</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01607717041800643</v>
+        <v>0.0165945165945166</v>
       </c>
       <c r="N19">
-        <v>0.0008038585209003215</v>
+        <v>0.0007215007215007215</v>
       </c>
       <c r="O19">
-        <v>0.06430868167202572</v>
+        <v>0.06349206349206349</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1036977491961415</v>
+        <v>0.09956709956709957</v>
       </c>
     </row>
   </sheetData>
